--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Col1a1-Ddr2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Col1a1-Ddr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.66003045967672</v>
+        <v>6.072131</v>
       </c>
       <c r="H2">
-        <v>1.66003045967672</v>
+        <v>18.216393</v>
       </c>
       <c r="I2">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036455</v>
       </c>
       <c r="J2">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036454</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>83.7785677066466</v>
+        <v>3.048502333333333</v>
       </c>
       <c r="N2">
-        <v>83.7785677066466</v>
+        <v>9.145507</v>
       </c>
       <c r="O2">
-        <v>0.7867490453848669</v>
+        <v>0.02767295150267144</v>
       </c>
       <c r="P2">
-        <v>0.7867490453848669</v>
+        <v>0.02767295150267144</v>
       </c>
       <c r="Q2">
-        <v>139.0749742611218</v>
+        <v>18.51090552180566</v>
       </c>
       <c r="R2">
-        <v>139.0749742611218</v>
+        <v>166.598149696251</v>
       </c>
       <c r="S2">
-        <v>0.0008540685625410374</v>
+        <v>0.0001091421004432715</v>
       </c>
       <c r="T2">
-        <v>0.0008540685625410374</v>
+        <v>0.0001091421004432715</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.66003045967672</v>
+        <v>6.072131</v>
       </c>
       <c r="H3">
-        <v>1.66003045967672</v>
+        <v>18.216393</v>
       </c>
       <c r="I3">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036455</v>
       </c>
       <c r="J3">
-        <v>0.001085566696967822</v>
+        <v>0.003943999267036454</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>22.7084603972938</v>
+        <v>83.828771</v>
       </c>
       <c r="N3">
-        <v>22.7084603972938</v>
+        <v>251.486313</v>
       </c>
       <c r="O3">
-        <v>0.2132509546151331</v>
+        <v>0.7609603866942148</v>
       </c>
       <c r="P3">
-        <v>0.2132509546151331</v>
+        <v>0.7609603866942148</v>
       </c>
       <c r="Q3">
-        <v>37.69673595187022</v>
+        <v>509.019279081001</v>
       </c>
       <c r="R3">
-        <v>37.69673595187022</v>
+        <v>4581.173511729009</v>
       </c>
       <c r="S3">
-        <v>0.0002314981344267851</v>
+        <v>0.00300122720736576</v>
       </c>
       <c r="T3">
-        <v>0.0002314981344267851</v>
+        <v>0.00300122720736576</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1476.30280581482</v>
+        <v>6.072131</v>
       </c>
       <c r="H4">
-        <v>1476.30280581482</v>
+        <v>18.216393</v>
       </c>
       <c r="I4">
-        <v>0.9654191290832239</v>
+        <v>0.003943999267036455</v>
       </c>
       <c r="J4">
-        <v>0.9654191290832239</v>
+        <v>0.003943999267036454</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>83.7785677066466</v>
+        <v>23.28453333333333</v>
       </c>
       <c r="N4">
-        <v>83.7785677066466</v>
+        <v>69.8536</v>
       </c>
       <c r="O4">
-        <v>0.7867490453848669</v>
+        <v>0.2113666618031137</v>
       </c>
       <c r="P4">
-        <v>0.7867490453848669</v>
+        <v>0.2113666618031138</v>
       </c>
       <c r="Q4">
-        <v>123682.5345724692</v>
+        <v>141.3867366738667</v>
       </c>
       <c r="R4">
-        <v>123682.5345724692</v>
+        <v>1272.4806300648</v>
       </c>
       <c r="S4">
-        <v>0.759542578202516</v>
+        <v>0.0008336299592274228</v>
       </c>
       <c r="T4">
-        <v>0.759542578202516</v>
+        <v>0.0008336299592274227</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1476.30280581482</v>
+        <v>1480.851806666667</v>
       </c>
       <c r="H5">
-        <v>1476.30280581482</v>
+        <v>4442.55542</v>
       </c>
       <c r="I5">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646554</v>
       </c>
       <c r="J5">
-        <v>0.9654191290832239</v>
+        <v>0.9618498744646552</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>22.7084603972938</v>
+        <v>3.048502333333333</v>
       </c>
       <c r="N5">
-        <v>22.7084603972938</v>
+        <v>9.145507</v>
       </c>
       <c r="O5">
-        <v>0.2132509546151331</v>
+        <v>0.02767295150267144</v>
       </c>
       <c r="P5">
-        <v>0.2132509546151331</v>
+        <v>0.02767295150267144</v>
       </c>
       <c r="Q5">
-        <v>33524.56380025956</v>
+        <v>4514.380187944215</v>
       </c>
       <c r="R5">
-        <v>33524.56380025956</v>
+        <v>40629.42169149794</v>
       </c>
       <c r="S5">
-        <v>0.2058765508807079</v>
+        <v>0.02661722492891102</v>
       </c>
       <c r="T5">
-        <v>0.2058765508807079</v>
+        <v>0.02661722492891101</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>51.2204597067405</v>
+        <v>1480.851806666667</v>
       </c>
       <c r="H6">
-        <v>51.2204597067405</v>
+        <v>4442.55542</v>
       </c>
       <c r="I6">
-        <v>0.03349530421980817</v>
+        <v>0.9618498744646554</v>
       </c>
       <c r="J6">
-        <v>0.03349530421980817</v>
+        <v>0.9618498744646552</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>83.7785677066466</v>
+        <v>83.828771</v>
       </c>
       <c r="N6">
-        <v>83.7785677066466</v>
+        <v>251.486313</v>
       </c>
       <c r="O6">
-        <v>0.7867490453848669</v>
+        <v>0.7609603866942148</v>
       </c>
       <c r="P6">
-        <v>0.7867490453848669</v>
+        <v>0.7609603866942148</v>
       </c>
       <c r="Q6">
-        <v>4291.176751506723</v>
+        <v>124137.9869859963</v>
       </c>
       <c r="R6">
-        <v>4291.176751506723</v>
+        <v>1117241.882873966</v>
       </c>
       <c r="S6">
-        <v>0.02635239861980978</v>
+        <v>0.7319296524144062</v>
       </c>
       <c r="T6">
-        <v>0.02635239861980978</v>
+        <v>0.731929652414406</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>51.2204597067405</v>
+        <v>1480.851806666667</v>
       </c>
       <c r="H7">
-        <v>51.2204597067405</v>
+        <v>4442.55542</v>
       </c>
       <c r="I7">
-        <v>0.03349530421980817</v>
+        <v>0.9618498744646554</v>
       </c>
       <c r="J7">
-        <v>0.03349530421980817</v>
+        <v>0.9618498744646552</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.7084603972938</v>
+        <v>23.28453333333333</v>
       </c>
       <c r="N7">
-        <v>22.7084603972938</v>
+        <v>69.8536</v>
       </c>
       <c r="O7">
-        <v>0.2132509546151331</v>
+        <v>0.2113666618031137</v>
       </c>
       <c r="P7">
-        <v>0.2132509546151331</v>
+        <v>0.2113666618031138</v>
       </c>
       <c r="Q7">
-        <v>1163.137780781699</v>
+        <v>34480.94325405688</v>
       </c>
       <c r="R7">
-        <v>1163.137780781699</v>
+        <v>310328.489286512</v>
       </c>
       <c r="S7">
-        <v>0.007142905599998389</v>
+        <v>0.2033029971213382</v>
       </c>
       <c r="T7">
-        <v>0.007142905599998389</v>
+        <v>0.2033029971213382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>52.663316</v>
+      </c>
+      <c r="H8">
+        <v>157.989948</v>
+      </c>
+      <c r="I8">
+        <v>0.03420612626830831</v>
+      </c>
+      <c r="J8">
+        <v>0.0342061262683083</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>3.048502333333333</v>
+      </c>
+      <c r="N8">
+        <v>9.145507</v>
+      </c>
+      <c r="O8">
+        <v>0.02767295150267144</v>
+      </c>
+      <c r="P8">
+        <v>0.02767295150267144</v>
+      </c>
+      <c r="Q8">
+        <v>160.5442417070707</v>
+      </c>
+      <c r="R8">
+        <v>1444.898175363636</v>
+      </c>
+      <c r="S8">
+        <v>0.0009465844733171513</v>
+      </c>
+      <c r="T8">
+        <v>0.0009465844733171512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>52.663316</v>
+      </c>
+      <c r="H9">
+        <v>157.989948</v>
+      </c>
+      <c r="I9">
+        <v>0.03420612626830831</v>
+      </c>
+      <c r="J9">
+        <v>0.0342061262683083</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>83.828771</v>
+      </c>
+      <c r="N9">
+        <v>251.486313</v>
+      </c>
+      <c r="O9">
+        <v>0.7609603866942148</v>
+      </c>
+      <c r="P9">
+        <v>0.7609603866942148</v>
+      </c>
+      <c r="Q9">
+        <v>4414.701057064636</v>
+      </c>
+      <c r="R9">
+        <v>39732.30951358172</v>
+      </c>
+      <c r="S9">
+        <v>0.02602950707244303</v>
+      </c>
+      <c r="T9">
+        <v>0.02602950707244303</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>52.663316</v>
+      </c>
+      <c r="H10">
+        <v>157.989948</v>
+      </c>
+      <c r="I10">
+        <v>0.03420612626830831</v>
+      </c>
+      <c r="J10">
+        <v>0.0342061262683083</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>23.28453333333333</v>
+      </c>
+      <c r="N10">
+        <v>69.8536</v>
+      </c>
+      <c r="O10">
+        <v>0.2113666618031137</v>
+      </c>
+      <c r="P10">
+        <v>0.2113666618031138</v>
+      </c>
+      <c r="Q10">
+        <v>1226.240736845867</v>
+      </c>
+      <c r="R10">
+        <v>11036.1666316128</v>
+      </c>
+      <c r="S10">
+        <v>0.007230034722548127</v>
+      </c>
+      <c r="T10">
+        <v>0.007230034722548126</v>
       </c>
     </row>
   </sheetData>
